--- a/output/XP_26549933000126.xlsx
+++ b/output/XP_26549933000126.xlsx
@@ -911,10 +911,10 @@
         <v>44165</v>
       </c>
       <c r="B48">
-        <v>0.3240417200000001</v>
+        <v>0.3227518300000001</v>
       </c>
       <c r="C48">
-        <v>0.01388990766043596</v>
+        <v>0.01290216956031598</v>
       </c>
     </row>
   </sheetData>

--- a/output/XP_26549933000126.xlsx
+++ b/output/XP_26549933000126.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>XP MACRO INSTITUCIONAL FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,535 +383,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42766</v>
       </c>
       <c r="B2">
-        <v>0.003913220000000051</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42794</v>
       </c>
       <c r="B3">
-        <v>0.01632868999999992</v>
-      </c>
-      <c r="C3">
         <v>0.01236707491510058</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42825</v>
       </c>
       <c r="B4">
-        <v>0.02866724000000009</v>
-      </c>
-      <c r="C4">
         <v>0.01214031456693432</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42855</v>
       </c>
       <c r="B5">
-        <v>0.03628550999999991</v>
-      </c>
-      <c r="C5">
         <v>0.007405961523572868</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42886</v>
       </c>
       <c r="B6">
-        <v>0.02604665000000006</v>
-      </c>
-      <c r="C6">
         <v>-0.009880346585179889</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42916</v>
       </c>
       <c r="B7">
-        <v>0.03329321000000007</v>
-      </c>
-      <c r="C7">
         <v>0.007062602855337996</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42947</v>
       </c>
       <c r="B8">
-        <v>0.05469140000000006</v>
-      </c>
-      <c r="C8">
         <v>0.02070872990639305</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42978</v>
       </c>
       <c r="B9">
-        <v>0.07147772000000008</v>
-      </c>
-      <c r="C9">
         <v>0.01591585936891105</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43008</v>
       </c>
       <c r="B10">
-        <v>0.08749622000000001</v>
-      </c>
-      <c r="C10">
         <v>0.01494991421753489</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43039</v>
       </c>
       <c r="B11">
-        <v>0.09021494000000008</v>
-      </c>
-      <c r="C11">
         <v>0.002499981103382565</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43069</v>
       </c>
       <c r="B12">
-        <v>0.09521426000000011</v>
-      </c>
-      <c r="C12">
         <v>0.004585627857934149</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43100</v>
       </c>
       <c r="B13">
-        <v>0.1051192599999999</v>
-      </c>
-      <c r="C13">
         <v>0.009043892470866677</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43131</v>
       </c>
       <c r="B14">
-        <v>0.1150560899999999</v>
-      </c>
-      <c r="C14">
         <v>0.008991635889143756</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43159</v>
       </c>
       <c r="B15">
-        <v>0.12080351</v>
-      </c>
-      <c r="C15">
         <v>0.005154377480688144</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43190</v>
       </c>
       <c r="B16">
-        <v>0.13693917</v>
-      </c>
-      <c r="C16">
         <v>0.01439651094597294</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43220</v>
       </c>
       <c r="B17">
-        <v>0.14063523</v>
-      </c>
-      <c r="C17">
         <v>0.003250886324903446</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43251</v>
       </c>
       <c r="B18">
-        <v>0.1274308200000001</v>
-      </c>
-      <c r="C18">
         <v>-0.01157636521537209</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43281</v>
       </c>
       <c r="B19">
-        <v>0.1335279300000001</v>
-      </c>
-      <c r="C19">
         <v>0.005407968180256129</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43312</v>
       </c>
       <c r="B20">
-        <v>0.1371316600000001</v>
-      </c>
-      <c r="C20">
         <v>0.003179215883988062</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43343</v>
       </c>
       <c r="B21">
-        <v>0.1447462500000001</v>
-      </c>
-      <c r="C21">
         <v>0.006696313424251921</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43373</v>
       </c>
       <c r="B22">
-        <v>0.1478624500000001</v>
-      </c>
-      <c r="C22">
         <v>0.002722175329248788</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43404</v>
       </c>
       <c r="B23">
-        <v>0.1535190500000001</v>
-      </c>
-      <c r="C23">
         <v>0.004927942368007532</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43434</v>
       </c>
       <c r="B24">
-        <v>0.1560351200000001</v>
-      </c>
-      <c r="C24">
         <v>0.002181212351889616</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43465</v>
       </c>
       <c r="B25">
-        <v>0.16670272</v>
-      </c>
-      <c r="C25">
         <v>0.00922774733694931</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43496</v>
       </c>
       <c r="B26">
-        <v>0.18918178</v>
-      </c>
-      <c r="C26">
         <v>0.0192671703036742</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43524</v>
       </c>
       <c r="B27">
-        <v>0.1924691700000001</v>
-      </c>
-      <c r="C27">
         <v>0.002764413359915618</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43555</v>
       </c>
       <c r="B28">
-        <v>0.19530472</v>
-      </c>
-      <c r="C28">
         <v>0.002377881182454411</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43585</v>
       </c>
       <c r="B29">
-        <v>0.2048025600000001</v>
-      </c>
-      <c r="C29">
         <v>0.007945957077790222</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43616</v>
       </c>
       <c r="B30">
-        <v>0.2130890700000001</v>
-      </c>
-      <c r="C30">
         <v>0.006877898732220444</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43646</v>
       </c>
       <c r="B31">
-        <v>0.22482563</v>
-      </c>
-      <c r="C31">
         <v>0.009674936729913819</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43677</v>
       </c>
       <c r="B32">
-        <v>0.23545203</v>
-      </c>
-      <c r="C32">
         <v>0.00867584718977521</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43708</v>
       </c>
       <c r="B33">
-        <v>0.23519823</v>
-      </c>
-      <c r="C33">
         <v>-0.0002054308818449924</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43738</v>
       </c>
       <c r="B34">
-        <v>0.2517133499999999</v>
-      </c>
-      <c r="C34">
         <v>0.01337042071376682</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43769</v>
       </c>
       <c r="B35">
-        <v>0.2668222200000001</v>
-      </c>
-      <c r="C35">
         <v>0.01207055113696764</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43799</v>
       </c>
       <c r="B36">
-        <v>0.2682697999999999</v>
-      </c>
-      <c r="C36">
         <v>0.001142685987935765</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43830</v>
       </c>
       <c r="B37">
-        <v>0.2820222400000001</v>
-      </c>
-      <c r="C37">
         <v>0.0108434656411438</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43861</v>
       </c>
       <c r="B38">
-        <v>0.28179244</v>
-      </c>
-      <c r="C38">
         <v>-0.0001792480604705382</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43890</v>
       </c>
       <c r="B39">
-        <v>0.27509904</v>
-      </c>
-      <c r="C39">
         <v>-0.005221906286169142</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43921</v>
       </c>
       <c r="B40">
-        <v>0.22842026</v>
-      </c>
-      <c r="C40">
         <v>-0.03660796419390289</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43951</v>
       </c>
       <c r="B41">
-        <v>0.23570205</v>
-      </c>
-      <c r="C41">
         <v>0.005927767749450696</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43982</v>
       </c>
       <c r="B42">
-        <v>0.26697014</v>
-      </c>
-      <c r="C42">
         <v>0.02530390719995967</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>44012</v>
       </c>
       <c r="B43">
-        <v>0.2937710899999999</v>
-      </c>
-      <c r="C43">
         <v>0.02115357667387485</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>44043</v>
       </c>
       <c r="B44">
-        <v>0.31245787</v>
-      </c>
-      <c r="C44">
         <v>0.01444365247023738</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>44074</v>
       </c>
       <c r="B45">
-        <v>0.3115636900000001</v>
-      </c>
-      <c r="C45">
         <v>-0.0006813018691410599</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>44104</v>
       </c>
       <c r="B46">
-        <v>0.30368547</v>
-      </c>
-      <c r="C46">
         <v>-0.006006738414662927</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>44135</v>
       </c>
       <c r="B47">
-        <v>0.3059028500000001</v>
-      </c>
-      <c r="C47">
         <v>0.00170085503829398</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>44165</v>
       </c>
       <c r="B48">
-        <v>0.3227518300000001</v>
-      </c>
-      <c r="C48">
-        <v>0.01290216956031598</v>
+        <v>0.01116168786981353</v>
       </c>
     </row>
   </sheetData>
